--- a/data/Plantilla_Entrada_ERP.xlsx
+++ b/data/Plantilla_Entrada_ERP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1510d6d17ff2404d/99-DESARROLLO/Python/DataSmartExpress/App_DataSmart_Express/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6A62EED5-B558-49EF-8C10-D71B573C7BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0036637-B33C-4738-9852-0F68F58AF5C6}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6A62EED5-B558-49EF-8C10-D71B573C7BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0321C3D5-965A-413A-B89A-30C8FA02733A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="62">
   <si>
     <t>COD_CUENTA</t>
   </si>
@@ -620,9 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H919"/>
+  <dimension ref="A1:H931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1248,13 +1250,13 @@
         <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>12234056</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -1274,13 +1276,13 @@
         <v>35</v>
       </c>
       <c r="E25" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="5">
-        <v>12234056</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -1508,10 +1510,10 @@
         <v>37</v>
       </c>
       <c r="E34" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" s="5">
         <v>4977</v>
@@ -1534,10 +1536,10 @@
         <v>37</v>
       </c>
       <c r="E35" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="5">
         <v>4977</v>
@@ -2470,13 +2472,13 @@
         <v>43</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>10203</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G71" s="5">
-        <v>117563</v>
+        <v>321116</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -2496,13 +2498,13 @@
         <v>43</v>
       </c>
       <c r="E72" s="1">
-        <v>10203</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G72" s="5">
-        <v>321116</v>
+        <v>117563</v>
       </c>
       <c r="H72" s="5">
         <v>0</v>
@@ -4472,10 +4474,10 @@
         <v>37</v>
       </c>
       <c r="E148" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="5">
         <v>4977</v>
@@ -4498,10 +4500,10 @@
         <v>37</v>
       </c>
       <c r="E149" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G149" s="5">
         <v>4977</v>
@@ -5694,13 +5696,13 @@
         <v>35</v>
       </c>
       <c r="E195" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G195" s="5">
-        <v>0</v>
+        <v>11552916</v>
       </c>
       <c r="H195" s="5">
         <v>0</v>
@@ -5720,13 +5722,13 @@
         <v>35</v>
       </c>
       <c r="E196" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G196" s="5">
-        <v>11552916</v>
+        <v>0</v>
       </c>
       <c r="H196" s="5">
         <v>0</v>
@@ -7124,13 +7126,13 @@
         <v>35</v>
       </c>
       <c r="E250" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G250" s="5">
-        <v>12548548</v>
+        <v>0</v>
       </c>
       <c r="H250" s="5">
         <v>0</v>
@@ -7150,13 +7152,13 @@
         <v>35</v>
       </c>
       <c r="E251" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G251" s="5">
-        <v>0</v>
+        <v>12548548</v>
       </c>
       <c r="H251" s="5">
         <v>0</v>
@@ -7306,10 +7308,10 @@
         <v>37</v>
       </c>
       <c r="E257" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G257" s="5">
         <v>4977</v>
@@ -7332,10 +7334,10 @@
         <v>37</v>
       </c>
       <c r="E258" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G258" s="5">
         <v>4977</v>
@@ -8710,10 +8712,10 @@
         <v>37</v>
       </c>
       <c r="E311" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G311" s="5">
         <v>4977</v>
@@ -8736,10 +8738,10 @@
         <v>37</v>
       </c>
       <c r="E312" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G312" s="5">
         <v>4977</v>
@@ -9932,13 +9934,13 @@
         <v>35</v>
       </c>
       <c r="E358" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G358" s="5">
-        <v>0</v>
+        <v>10916278</v>
       </c>
       <c r="H358" s="5">
         <v>0</v>
@@ -9958,13 +9960,13 @@
         <v>35</v>
       </c>
       <c r="E359" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G359" s="5">
-        <v>10916278</v>
+        <v>0</v>
       </c>
       <c r="H359" s="5">
         <v>0</v>
@@ -10114,10 +10116,10 @@
         <v>37</v>
       </c>
       <c r="E365" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G365" s="5">
         <v>4977</v>
@@ -10140,10 +10142,10 @@
         <v>37</v>
       </c>
       <c r="E366" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G366" s="5">
         <v>4977</v>
@@ -11232,13 +11234,13 @@
         <v>35</v>
       </c>
       <c r="E408" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G408" s="5">
-        <v>0</v>
+        <v>12548281</v>
       </c>
       <c r="H408" s="5">
         <v>0</v>
@@ -11258,13 +11260,13 @@
         <v>35</v>
       </c>
       <c r="E409" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G409" s="5">
-        <v>12548281</v>
+        <v>0</v>
       </c>
       <c r="H409" s="5">
         <v>0</v>
@@ -12636,13 +12638,13 @@
         <v>35</v>
       </c>
       <c r="E462" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G462" s="5">
-        <v>0</v>
+        <v>12548281</v>
       </c>
       <c r="H462" s="5">
         <v>0</v>
@@ -12662,13 +12664,13 @@
         <v>35</v>
       </c>
       <c r="E463" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G463" s="5">
-        <v>12548281</v>
+        <v>0</v>
       </c>
       <c r="H463" s="5">
         <v>0</v>
@@ -12792,10 +12794,10 @@
         <v>37</v>
       </c>
       <c r="E468" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G468" s="5">
         <v>4977</v>
@@ -12818,10 +12820,10 @@
         <v>37</v>
       </c>
       <c r="E469" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G469" s="5">
         <v>4977</v>
@@ -14040,13 +14042,13 @@
         <v>35</v>
       </c>
       <c r="E516" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G516" s="5">
-        <v>0</v>
+        <v>10238677.4</v>
       </c>
       <c r="H516" s="5">
         <v>0</v>
@@ -14066,13 +14068,13 @@
         <v>35</v>
       </c>
       <c r="E517" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G517" s="5">
-        <v>10238677.4</v>
+        <v>0</v>
       </c>
       <c r="H517" s="5">
         <v>0</v>
@@ -14196,10 +14198,10 @@
         <v>37</v>
       </c>
       <c r="E522" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G522" s="5">
         <v>5440</v>
@@ -14222,10 +14224,10 @@
         <v>37</v>
       </c>
       <c r="E523" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G523" s="5">
         <v>5440</v>
@@ -23394,10 +23396,10 @@
         <v>5</v>
       </c>
       <c r="C876" s="1">
-        <v>4210</v>
+        <v>4155</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E876" s="1">
         <v>0</v>
@@ -23406,10 +23408,10 @@
         <v>3</v>
       </c>
       <c r="G876" s="5">
-        <v>1280429.26</v>
+        <v>0</v>
       </c>
       <c r="H876" s="5">
-        <v>17804062.52</v>
+        <v>1659058403</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.3">
@@ -23420,10 +23422,10 @@
         <v>5</v>
       </c>
       <c r="C877" s="1">
-        <v>5105</v>
+        <v>4175</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E877" s="1">
         <v>0</v>
@@ -23432,10 +23434,10 @@
         <v>3</v>
       </c>
       <c r="G877" s="5">
-        <v>8854827</v>
+        <v>16577200</v>
       </c>
       <c r="H877" s="5">
-        <v>4075179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.3">
@@ -23446,22 +23448,22 @@
         <v>5</v>
       </c>
       <c r="C878" s="1">
-        <v>5105</v>
+        <v>4210</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E878" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F878" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G878" s="5">
-        <v>43902068</v>
+        <v>1280429.26</v>
       </c>
       <c r="H878" s="5">
-        <v>0</v>
+        <v>18490297.350000001</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.3">
@@ -23472,22 +23474,22 @@
         <v>5</v>
       </c>
       <c r="C879" s="1">
-        <v>5105</v>
+        <v>4250</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E879" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F879" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G879" s="5">
-        <v>18186097</v>
+        <v>0</v>
       </c>
       <c r="H879" s="5">
-        <v>0</v>
+        <v>2072017</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.3">
@@ -23498,22 +23500,22 @@
         <v>5</v>
       </c>
       <c r="C880" s="1">
-        <v>5105</v>
+        <v>4295</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E880" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F880" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G880" s="5">
-        <v>49120753.039999999</v>
+        <v>0</v>
       </c>
       <c r="H880" s="5">
-        <v>0</v>
+        <v>2230.1999999999998</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.3">
@@ -23524,10 +23526,10 @@
         <v>5</v>
       </c>
       <c r="C881" s="1">
-        <v>5110</v>
+        <v>5105</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E881" s="1">
         <v>0</v>
@@ -23536,10 +23538,10 @@
         <v>3</v>
       </c>
       <c r="G881" s="5">
-        <v>8661200</v>
+        <v>8854827</v>
       </c>
       <c r="H881" s="5">
-        <v>0</v>
+        <v>4075179</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.3">
@@ -23550,19 +23552,19 @@
         <v>5</v>
       </c>
       <c r="C882" s="1">
-        <v>5130</v>
+        <v>5105</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E882" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F882" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G882" s="5">
-        <v>45460</v>
+        <v>43902068</v>
       </c>
       <c r="H882" s="5">
         <v>0</v>
@@ -23576,19 +23578,19 @@
         <v>5</v>
       </c>
       <c r="C883" s="1">
-        <v>5130</v>
+        <v>5105</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E883" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F883" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G883" s="5">
-        <v>31540</v>
+        <v>18186097</v>
       </c>
       <c r="H883" s="5">
         <v>0</v>
@@ -23602,22 +23604,22 @@
         <v>5</v>
       </c>
       <c r="C884" s="1">
-        <v>5135</v>
+        <v>5105</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E884" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F884" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G884" s="5">
-        <v>12031128</v>
+        <v>49120753.039999999</v>
       </c>
       <c r="H884" s="5">
-        <v>1671135.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.3">
@@ -23628,10 +23630,10 @@
         <v>5</v>
       </c>
       <c r="C885" s="1">
-        <v>5140</v>
+        <v>5110</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E885" s="1">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>3</v>
       </c>
       <c r="G885" s="5">
-        <v>508887</v>
+        <v>8661200</v>
       </c>
       <c r="H885" s="5">
         <v>0</v>
@@ -23654,10 +23656,10 @@
         <v>5</v>
       </c>
       <c r="C886" s="1">
-        <v>5145</v>
+        <v>5130</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E886" s="1">
         <v>0</v>
@@ -23666,7 +23668,7 @@
         <v>3</v>
       </c>
       <c r="G886" s="5">
-        <v>3476065</v>
+        <v>45460</v>
       </c>
       <c r="H886" s="5">
         <v>0</v>
@@ -23680,19 +23682,19 @@
         <v>5</v>
       </c>
       <c r="C887" s="1">
-        <v>5155</v>
+        <v>5130</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E887" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F887" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G887" s="5">
-        <v>7229826</v>
+        <v>31540</v>
       </c>
       <c r="H887" s="5">
         <v>0</v>
@@ -23706,10 +23708,10 @@
         <v>5</v>
       </c>
       <c r="C888" s="1">
-        <v>5160</v>
+        <v>5135</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E888" s="1">
         <v>0</v>
@@ -23718,10 +23720,10 @@
         <v>3</v>
       </c>
       <c r="G888" s="5">
-        <v>7259515.8700000001</v>
+        <v>12031128</v>
       </c>
       <c r="H888" s="5">
-        <v>0</v>
+        <v>1671135.7</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.3">
@@ -23732,10 +23734,10 @@
         <v>5</v>
       </c>
       <c r="C889" s="1">
-        <v>5165</v>
+        <v>5140</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E889" s="1">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>3</v>
       </c>
       <c r="G889" s="5">
-        <v>3423821.48</v>
+        <v>508887</v>
       </c>
       <c r="H889" s="5">
         <v>0</v>
@@ -23758,10 +23760,10 @@
         <v>5</v>
       </c>
       <c r="C890" s="1">
-        <v>5195</v>
+        <v>5145</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E890" s="1">
         <v>0</v>
@@ -23770,10 +23772,10 @@
         <v>3</v>
       </c>
       <c r="G890" s="5">
-        <v>14304598</v>
+        <v>3476065</v>
       </c>
       <c r="H890" s="5">
-        <v>242547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.3">
@@ -23784,19 +23786,19 @@
         <v>5</v>
       </c>
       <c r="C891" s="1">
-        <v>5205</v>
+        <v>5150</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E891" s="1">
-        <v>0</v>
+        <v>10507008</v>
       </c>
       <c r="F891" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G891" s="5">
-        <v>10297258</v>
+        <v>38915.769999999997</v>
       </c>
       <c r="H891" s="5">
         <v>0</v>
@@ -23810,19 +23812,19 @@
         <v>5</v>
       </c>
       <c r="C892" s="1">
-        <v>5205</v>
+        <v>5155</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E892" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F892" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G892" s="5">
-        <v>31790793</v>
+        <v>7229826</v>
       </c>
       <c r="H892" s="5">
         <v>0</v>
@@ -23836,19 +23838,19 @@
         <v>5</v>
       </c>
       <c r="C893" s="1">
-        <v>5205</v>
+        <v>5160</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E893" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F893" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G893" s="5">
-        <v>0</v>
+        <v>7259515.8700000001</v>
       </c>
       <c r="H893" s="5">
         <v>0</v>
@@ -23862,19 +23864,19 @@
         <v>5</v>
       </c>
       <c r="C894" s="1">
-        <v>5205</v>
+        <v>5165</v>
       </c>
       <c r="D894" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E894" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F894" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G894" s="5">
-        <v>8249385.4500000002</v>
+        <v>3423821.48</v>
       </c>
       <c r="H894" s="5">
         <v>0</v>
@@ -23888,22 +23890,22 @@
         <v>5</v>
       </c>
       <c r="C895" s="1">
-        <v>5205</v>
+        <v>5195</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E895" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F895" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G895" s="5">
-        <v>0</v>
+        <v>14304598</v>
       </c>
       <c r="H895" s="5">
-        <v>0</v>
+        <v>242547</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.3">
@@ -23920,13 +23922,13 @@
         <v>35</v>
       </c>
       <c r="E896" s="1">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F896" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G896" s="5">
-        <v>2264161.2000000002</v>
+        <v>10297258</v>
       </c>
       <c r="H896" s="5">
         <v>0</v>
@@ -23946,13 +23948,13 @@
         <v>35</v>
       </c>
       <c r="E897" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F897" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G897" s="5">
-        <v>41602585.990000002</v>
+        <v>31790793</v>
       </c>
       <c r="H897" s="5">
         <v>0</v>
@@ -23966,22 +23968,22 @@
         <v>5</v>
       </c>
       <c r="C898" s="1">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E898" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F898" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G898" s="5">
-        <v>17083600</v>
+        <v>0</v>
       </c>
       <c r="H898" s="5">
-        <v>749550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.3">
@@ -23992,19 +23994,19 @@
         <v>5</v>
       </c>
       <c r="C899" s="1">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E899" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F899" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G899" s="5">
-        <v>10880</v>
+        <v>8249385.4500000002</v>
       </c>
       <c r="H899" s="5">
         <v>0</v>
@@ -24018,19 +24020,19 @@
         <v>5</v>
       </c>
       <c r="C900" s="1">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E900" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F900" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G900" s="5">
-        <v>5440</v>
+        <v>0</v>
       </c>
       <c r="H900" s="5">
         <v>0</v>
@@ -24044,10 +24046,10 @@
         <v>5</v>
       </c>
       <c r="C901" s="1">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E901" s="1">
         <v>107</v>
@@ -24056,7 +24058,7 @@
         <v>12</v>
       </c>
       <c r="G901" s="5">
-        <v>5440</v>
+        <v>2264161.2000000002</v>
       </c>
       <c r="H901" s="5">
         <v>0</v>
@@ -24070,19 +24072,19 @@
         <v>5</v>
       </c>
       <c r="C902" s="1">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E902" s="1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G902" s="5">
-        <v>5440</v>
+        <v>41602585.990000002</v>
       </c>
       <c r="H902" s="5">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>5</v>
       </c>
       <c r="C903" s="1">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E903" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F903" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G903" s="5">
-        <v>10880</v>
+        <v>17083600</v>
       </c>
       <c r="H903" s="5">
-        <v>0</v>
+        <v>749550</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.3">
@@ -24122,19 +24124,19 @@
         <v>5</v>
       </c>
       <c r="C904" s="1">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E904" s="1">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F904" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G904" s="5">
-        <v>33000</v>
+        <v>10066126</v>
       </c>
       <c r="H904" s="5">
         <v>0</v>
@@ -24148,19 +24150,19 @@
         <v>5</v>
       </c>
       <c r="C905" s="1">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E905" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F905" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G905" s="5">
-        <v>33000</v>
+        <v>10880</v>
       </c>
       <c r="H905" s="5">
         <v>0</v>
@@ -24174,19 +24176,19 @@
         <v>5</v>
       </c>
       <c r="C906" s="1">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E906" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F906" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G906" s="5">
-        <v>30000</v>
+        <v>5440</v>
       </c>
       <c r="H906" s="5">
         <v>0</v>
@@ -24200,19 +24202,19 @@
         <v>5</v>
       </c>
       <c r="C907" s="1">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E907" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F907" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G907" s="5">
-        <v>33000</v>
+        <v>5440</v>
       </c>
       <c r="H907" s="5">
         <v>0</v>
@@ -24226,22 +24228,22 @@
         <v>5</v>
       </c>
       <c r="C908" s="1">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E908" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G908" s="5">
-        <v>5659185</v>
+        <v>5440</v>
       </c>
       <c r="H908" s="5">
-        <v>1671135.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.3">
@@ -24252,19 +24254,19 @@
         <v>5</v>
       </c>
       <c r="C909" s="1">
-        <v>5255</v>
+        <v>5230</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E909" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G909" s="5">
-        <v>190739</v>
+        <v>10880</v>
       </c>
       <c r="H909" s="5">
         <v>0</v>
@@ -24278,19 +24280,19 @@
         <v>5</v>
       </c>
       <c r="C910" s="1">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E910" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G910" s="5">
-        <v>2216177.29</v>
+        <v>33000</v>
       </c>
       <c r="H910" s="5">
         <v>0</v>
@@ -24304,19 +24306,19 @@
         <v>5</v>
       </c>
       <c r="C911" s="1">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E911" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F911" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G911" s="5">
-        <v>4710220.1100000003</v>
+        <v>33000</v>
       </c>
       <c r="H911" s="5">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>5</v>
       </c>
       <c r="C912" s="1">
-        <v>5295</v>
+        <v>5235</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E912" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F912" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G912" s="5">
-        <v>7626408</v>
+        <v>30000</v>
       </c>
       <c r="H912" s="5">
         <v>0</v>
@@ -24356,19 +24358,19 @@
         <v>5</v>
       </c>
       <c r="C913" s="1">
-        <v>5305</v>
+        <v>5235</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E913" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F913" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G913" s="5">
-        <v>24509728.140000001</v>
+        <v>33000</v>
       </c>
       <c r="H913" s="5">
         <v>0</v>
@@ -24382,10 +24384,10 @@
         <v>5</v>
       </c>
       <c r="C914" s="1">
-        <v>5315</v>
+        <v>5235</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E914" s="1">
         <v>0</v>
@@ -24394,10 +24396,10 @@
         <v>3</v>
       </c>
       <c r="G914" s="5">
-        <v>88681067.030000001</v>
+        <v>5659185</v>
       </c>
       <c r="H914" s="5">
-        <v>0</v>
+        <v>1671135.7</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.3">
@@ -24408,19 +24410,19 @@
         <v>5</v>
       </c>
       <c r="C915" s="1">
-        <v>5395</v>
+        <v>5250</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E915" s="1">
-        <v>0</v>
+        <v>10507008</v>
       </c>
       <c r="F915" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G915" s="5">
-        <v>2265.38</v>
+        <v>38915.769999999997</v>
       </c>
       <c r="H915" s="5">
         <v>0</v>
@@ -24434,10 +24436,10 @@
         <v>5</v>
       </c>
       <c r="C916" s="1">
-        <v>615555</v>
+        <v>5255</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E916" s="1">
         <v>0</v>
@@ -24446,10 +24448,10 @@
         <v>3</v>
       </c>
       <c r="G916" s="5">
-        <v>39155133</v>
+        <v>190739</v>
       </c>
       <c r="H916" s="5">
-        <v>23351634.579999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.3">
@@ -24460,10 +24462,10 @@
         <v>5</v>
       </c>
       <c r="C917" s="1">
-        <v>615556</v>
+        <v>5260</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E917" s="1">
         <v>0</v>
@@ -24472,10 +24474,10 @@
         <v>3</v>
       </c>
       <c r="G917" s="5">
-        <v>12227220</v>
+        <v>2216177.29</v>
       </c>
       <c r="H917" s="5">
-        <v>40410477.399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.3">
@@ -24486,10 +24488,10 @@
         <v>5</v>
       </c>
       <c r="C918" s="1">
-        <v>615560</v>
+        <v>5265</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E918" s="1">
         <v>0</v>
@@ -24498,10 +24500,10 @@
         <v>3</v>
       </c>
       <c r="G918" s="5">
-        <v>0</v>
+        <v>4710220.1100000003</v>
       </c>
       <c r="H918" s="5">
-        <v>372454809.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.3">
@@ -24512,21 +24514,333 @@
         <v>5</v>
       </c>
       <c r="C919" s="1">
+        <v>5295</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E919" s="1">
+        <v>0</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G919" s="5">
+        <v>7626408</v>
+      </c>
+      <c r="H919" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A920" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B920" s="1">
+        <v>5</v>
+      </c>
+      <c r="C920" s="1">
+        <v>5305</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E920" s="1">
+        <v>0</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G920" s="5">
+        <v>25497977.789999999</v>
+      </c>
+      <c r="H920" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A921" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B921" s="1">
+        <v>5</v>
+      </c>
+      <c r="C921" s="1">
+        <v>5315</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E921" s="1">
+        <v>0</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G921" s="5">
+        <v>88681067.030000001</v>
+      </c>
+      <c r="H921" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A922" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B922" s="1">
+        <v>5</v>
+      </c>
+      <c r="C922" s="1">
+        <v>5395</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E922" s="1">
+        <v>0</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G922" s="5">
+        <v>2265.38</v>
+      </c>
+      <c r="H922" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A923" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B923" s="1">
+        <v>5</v>
+      </c>
+      <c r="C923" s="1">
+        <v>5405</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E923" s="1">
+        <v>0</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G923" s="5">
+        <v>41727074</v>
+      </c>
+      <c r="H923" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A924" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B924" s="1">
+        <v>5</v>
+      </c>
+      <c r="C924" s="1">
+        <v>615555</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E924" s="1">
+        <v>0</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G924" s="5">
+        <v>1265462273.3499999</v>
+      </c>
+      <c r="H924" s="5">
+        <v>130728360.03</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A925" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B925" s="1">
+        <v>5</v>
+      </c>
+      <c r="C925" s="1">
+        <v>615555</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E925" s="1">
+        <v>10507010</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G925" s="5">
+        <v>15250180.060000001</v>
+      </c>
+      <c r="H925" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A926" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B926" s="1">
+        <v>5</v>
+      </c>
+      <c r="C926" s="1">
+        <v>615556</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E926" s="1">
+        <v>0</v>
+      </c>
+      <c r="F926" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G926" s="5">
+        <v>12227220</v>
+      </c>
+      <c r="H926" s="5">
+        <v>40410477.399999999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A927" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B927" s="1">
+        <v>5</v>
+      </c>
+      <c r="C927" s="1">
+        <v>615558</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E927" s="1">
+        <v>0</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G927" s="5">
+        <v>135224635.25</v>
+      </c>
+      <c r="H927" s="5">
+        <v>580905.06999999995</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A928" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B928" s="1">
+        <v>5</v>
+      </c>
+      <c r="C928" s="1">
+        <v>615559</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E928" s="1">
+        <v>0</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G928" s="5">
+        <v>43615469.460000001</v>
+      </c>
+      <c r="H928" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A929" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B929" s="1">
+        <v>5</v>
+      </c>
+      <c r="C929" s="1">
+        <v>615560</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E929" s="1">
+        <v>0</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G929" s="5">
+        <v>190430566.24000001</v>
+      </c>
+      <c r="H929" s="5">
+        <v>372454809.5</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A930" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B930" s="1">
+        <v>5</v>
+      </c>
+      <c r="C930" s="1">
         <v>615561</v>
       </c>
-      <c r="D919" s="1" t="s">
+      <c r="D930" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E919" s="1">
-        <v>0</v>
-      </c>
-      <c r="F919" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G919" s="5">
-        <v>15615014.640000001</v>
-      </c>
-      <c r="H919" s="5">
+      <c r="E930" s="1">
+        <v>0</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G930" s="5">
+        <v>0</v>
+      </c>
+      <c r="H930" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A931" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B931" s="1">
+        <v>6</v>
+      </c>
+      <c r="C931" s="1">
+        <v>4210</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E931" s="1">
+        <v>0</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G931" s="5">
+        <v>0</v>
+      </c>
+      <c r="H931" s="5">
         <v>0</v>
       </c>
     </row>
